--- a/create_sample.xlsx
+++ b/create_sample.xlsx
@@ -57,12 +57,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="FrustNumber" headerRowCount="1" id="1" name="FrustNumber" ref="B1:D2">
-  <autoFilter ref="B1:D2"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="tableName" headerRowCount="1" id="1" name="tableName" ref="A1:E2">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="frust"/>
     <tableColumn id="2" name="2014"/>
     <tableColumn id="3" name="2015"/>
     <tableColumn id="4" name="2016"/>
+    <tableColumn id="5" name="2017"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showColumnStripes="1" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
@@ -386,6 +388,11 @@
           <t>2016</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
